--- a/Red vs Samsara.xlsx
+++ b/Red vs Samsara.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Bugs</t>
   </si>
@@ -174,6 +174,9 @@
 - Class
 6. Click "Save" button
 Expected: Hero is created and can be found in Heroes lists</t>
+  </si>
+  <si>
+    <t>Logout button on landing page</t>
   </si>
 </sst>
 </file>
@@ -842,10 +845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,6 +873,11 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Red vs Samsara.xlsx
+++ b/Red vs Samsara.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Bugs</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Logout button on landing page</t>
+  </si>
+  <si>
+    <t>Next page button is hard to get due to font</t>
   </si>
 </sst>
 </file>
@@ -845,10 +848,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,6 +881,11 @@
         <v>42</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Red vs Samsara.xlsx
+++ b/Red vs Samsara.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="159" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="159" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Bugs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Bugs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>Bugs</t>
   </si>
@@ -135,9 +136,6 @@
 2. On Login Page enter invalid credentials in username field
 3. On Login page, click Log in button
 Expected: Login denied. Error message "Invalid username and password." displayed</t>
-  </si>
-  <si>
-    <t>userCreateNewHeroTest</t>
   </si>
   <si>
     <t>userEditExistingOwnHeroTest</t>
@@ -180,6 +178,54 @@
   </si>
   <si>
     <t>Next page button is hard to get due to font</t>
+  </si>
+  <si>
+    <t>testCreateNewHeroAsUser</t>
+  </si>
+  <si>
+    <t>Test steps</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 45, Failures: 0, Errors: 0, Skipped: 0, Time elapsed: 249.082 s - in TestSuite</t>
+  </si>
+  <si>
+    <t>[INFO]</t>
+  </si>
+  <si>
+    <t>[INFO] Results:</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 45, Failures: 0, Errors: 0, Skipped: 0</t>
+  </si>
+  <si>
+    <t>[WARNING] File encoding has not been set, using platform encoding Cp1252, i.e. build is platform dependent! The file encoding for reports output files should be provided by the POM property ${project.reporting.outputEncoding}.</t>
+  </si>
+  <si>
+    <t>[INFO] --- maven-failsafe-plugin:2.20:verify (default) @ RedTestFramework ---</t>
+  </si>
+  <si>
+    <t>[INFO] --- maven-install-plugin:2.4:install (default-install) @ RedTestFramework ---</t>
+  </si>
+  <si>
+    <t>[INFO] Installing C:\Users\Marko\Documents\Automation\RED\RedTestFramework\target\RedTestFramework-0.0.1-SNAPSHOT.jar to C:\Users\Marko\.m2\repository\com\red\testframework\RedTestFramework\0.0.1-SNAPSHOT\RedTestFramework-0.0.1-SNAPSHOT.jar</t>
+  </si>
+  <si>
+    <t>[INFO] Installing C:\Users\Marko\Documents\Automation\RED\RedTestFramework\pom.xml to C:\Users\Marko\.m2\repository\com\red\testframework\RedTestFramework\0.0.1-SNAPSHOT\RedTestFramework-0.0.1-SNAPSHOT.pom</t>
+  </si>
+  <si>
+    <t>[INFO] ------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>[INFO] BUILD SUCCESS</t>
+  </si>
+  <si>
+    <t>[INFO] Total time: 04:15 min</t>
+  </si>
+  <si>
+    <t>[INFO] Finished at: 2020-05-03T21:46:26+02:00</t>
+  </si>
+  <si>
+    <t>[INFO] Final Memory: 25M/416M</t>
   </si>
 </sst>
 </file>
@@ -250,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -269,6 +315,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,25 +605,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="223.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="81.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="223.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -579,268 +635,359 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -848,9 +995,132 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="247" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -863,27 +1133,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Red vs Samsara.xlsx
+++ b/Red vs Samsara.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>Bugs</t>
   </si>
@@ -227,12 +227,45 @@
   <si>
     <t>[INFO] Final Memory: 25M/416M</t>
   </si>
+  <si>
+    <t>After bad login, refreshing page does not remove error message</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 3, Failures: 0, Errors: 0, Skipped: 0, Time elapsed: 0.755 s - in TestSuite</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 3, Failures: 0, Errors: 0, Skipped: 0</t>
+  </si>
+  <si>
+    <t>[INFO] Total time: 8.078 s</t>
+  </si>
+  <si>
+    <t>[INFO] Finished at: 2020-05-05T14:27:05+02:00</t>
+  </si>
+  <si>
+    <t>[INFO] Final Memory: 29M/613M</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 12, Failures: 0, Errors: 0, Skipped: 0, Time elapsed: 1.038 s - in TestSuite</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 12, Failures: 0, Errors: 0, Skipped: 0</t>
+  </si>
+  <si>
+    <t>[INFO] Total time: 7.469 s</t>
+  </si>
+  <si>
+    <t>[INFO] Finished at: 2020-05-05T20:10:43+02:00</t>
+  </si>
+  <si>
+    <t>[INFO] Final Memory: 26M/416M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +287,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,8 +315,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -292,11 +349,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -319,14 +393,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -702,10 +780,10 @@
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
@@ -718,8 +796,8 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -728,8 +806,8 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -738,8 +816,8 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -748,8 +826,8 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -758,8 +836,8 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -768,8 +846,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -778,8 +856,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -995,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,107 +1085,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9">
+      <c r="A1" s="8">
         <v>43954</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1118,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,6 +1444,11 @@
         <v>42</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Red vs Samsara.xlsx
+++ b/Red vs Samsara.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="159" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="159" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
   <si>
     <t>Bugs</t>
   </si>
@@ -260,12 +260,102 @@
   <si>
     <t>[INFO] Final Memory: 26M/416M</t>
   </si>
+  <si>
+    <t>[INFO] Tests run: 58, Failures: 0, Errors: 0, Skipped: 0, Time elapsed: 607.416 s - in TestSuite</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 58, Failures: 0, Errors: 0, Skipped: 0</t>
+  </si>
+  <si>
+    <t>[INFO] Total time: 10:14 min</t>
+  </si>
+  <si>
+    <t>[INFO] Finished at: 2020-05-05T20:51:13+02:00</t>
+  </si>
+  <si>
+    <t>[INFO] Final Memory: 26M/414M</t>
+  </si>
+  <si>
+    <t>[ERROR] Failures:</t>
+  </si>
+  <si>
+    <t>[ERROR]   SamsaraUITests.tearDown:267 ╗ Javascript TypeError: document.querySelector(......</t>
+  </si>
+  <si>
+    <t>[ERROR] com.red.testframework.tests.SamsaraUITests.testEditUserAsAdmin(com.red.testframework.tests.SamsaraUITests)</t>
+  </si>
+  <si>
+    <t>[INFO]   Run 1: PASS</t>
+  </si>
+  <si>
+    <t>[ERROR]   Run 2: SamsaraUITests.testEditUserAsAdmin:184 ╗ Javascript TypeError: document.queryS...</t>
+  </si>
+  <si>
+    <t>[ERROR] Tests run: 50, Failures: 2, Errors: 0, Skipped: 0</t>
+  </si>
+  <si>
+    <t>[INFO] BUILD FAILURE</t>
+  </si>
+  <si>
+    <t>[INFO] Total time: 12:48 min</t>
+  </si>
+  <si>
+    <t>[INFO] Finished at: 2020-05-07T01:35:24+02:00</t>
+  </si>
+  <si>
+    <t>[INFO] Final Memory: 25M/418M</t>
+  </si>
+  <si>
+    <t>[ERROR] Failed to execute goal org.apache.maven.plugins:maven-failsafe-plugin:2.20:verify (default) on project RedTestFramework: There are test failures.</t>
+  </si>
+  <si>
+    <t>[ERROR]</t>
+  </si>
+  <si>
+    <t>[ERROR] Please refer to C:\Users\Marko\Documents\Automation\RED\RedTestFramework\target\failsafe-reports for the individual test results.</t>
+  </si>
+  <si>
+    <t>[ERROR] Please refer to dump files (if any exist) [date]-jvmRun[N].dump, [date].dumpstream and [date]-jvmRun[N].dumpstream.</t>
+  </si>
+  <si>
+    <t>[ERROR] -&gt; [Help 1]</t>
+  </si>
+  <si>
+    <t>[ERROR] To see the full stack trace of the errors, re-run Maven with the -e switch.</t>
+  </si>
+  <si>
+    <t>[ERROR] Re-run Maven using the -X switch to enable full debug logging.</t>
+  </si>
+  <si>
+    <t>[ERROR] For more information about the errors and possible solutions, please read the following articles:</t>
+  </si>
+  <si>
+    <t>[ERROR] [Help 1] http://cwiki.apache.org/confluence/display/MAVEN/MojoFailureException</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 71, Failures: 0, Errors: 0, Skipped: 0, Time elapsed: 431.619 s - in TestSuite</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 71, Failures: 0, Errors: 0, Skipped: 0</t>
+  </si>
+  <si>
+    <t>[INFO] Total time: 07:19 min</t>
+  </si>
+  <si>
+    <t>[INFO] Finished at: 2020-05-07T15:25:55+02:00</t>
+  </si>
+  <si>
+    <t>[INFO] Final Memory: 26M/417M</t>
+  </si>
+  <si>
+    <t>If session expires while in add user form, some rules can be workarounded</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +391,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +420,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -365,12 +467,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -396,13 +499,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,6 +523,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="1323976"/>
+          <a:ext cx="2190750" cy="1876898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,7 +928,7 @@
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="7"/>
@@ -796,7 +944,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -806,7 +954,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -816,7 +964,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="7"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -826,7 +974,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="7"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -836,7 +984,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="7"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -846,7 +994,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="7"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -856,7 +1004,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="7"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -1073,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,102 +1238,102 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1195,102 +1343,102 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1300,102 +1448,482 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1406,13 +1934,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1449,7 +1980,13 @@
         <v>59</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Red vs Samsara.xlsx
+++ b/Red vs Samsara.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="159" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="159" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Bugs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="111">
   <si>
     <t>Bugs</t>
   </si>
@@ -349,6 +350,39 @@
   </si>
   <si>
     <t>If session expires while in add user form, some rules can be workarounded</t>
+  </si>
+  <si>
+    <t>Creating new user does not populate Users table correctly, id is not incremented</t>
+  </si>
+  <si>
+    <t>Add parameters on API page</t>
+  </si>
+  <si>
+    <t>GET api heroes by id and level have the same semantics</t>
+  </si>
+  <si>
+    <t>Get last and first n users seem inverted</t>
+  </si>
+  <si>
+    <t>[ERROR] Tests run: 216, Failures: 15, Errors: 0, Skipped: 0</t>
+  </si>
+  <si>
+    <t>[INFO] --- maven-failsafe-plugin:2.22.2:verify (default) @ RedTestFramework ---</t>
+  </si>
+  <si>
+    <t>[INFO] Total time: 56:36 min</t>
+  </si>
+  <si>
+    <t>[INFO] Finished at: 2020-05-18T03:13:12+02:00</t>
+  </si>
+  <si>
+    <t>[INFO] Final Memory: 24M/287M</t>
+  </si>
+  <si>
+    <t>[ERROR] Failed to execute goal org.apache.maven.plugins:maven-failsafe-plugin:2.22.2:verify (default) on project RedTestFramework: There are test failures.</t>
+  </si>
+  <si>
+    <t>[ERROR] Please refer to dump files (if any exist) [date].dump, [date]-jvmRun[N].dump and [date].dumpstream.</t>
   </si>
 </sst>
 </file>
@@ -501,10 +535,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -928,7 +962,7 @@
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="7"/>
@@ -944,7 +978,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -954,7 +988,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="7"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -964,7 +998,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="7"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -974,7 +1008,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -984,7 +1018,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="7"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -994,7 +1028,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="7"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -1004,7 +1038,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="7"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -1221,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A139"/>
+  <dimension ref="A1:A162"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1742,7 @@
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1925,6 +1959,121 @@
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="8">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1934,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,6 +2134,26 @@
         <v>99</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Red vs Samsara.xlsx
+++ b/Red vs Samsara.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Bugs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="115">
   <si>
     <t>Bugs</t>
   </si>
@@ -383,6 +382,18 @@
   </si>
   <si>
     <t>[ERROR] Please refer to dump files (if any exist) [date].dump, [date]-jvmRun[N].dump and [date].dumpstream.</t>
+  </si>
+  <si>
+    <t>===============================================</t>
+  </si>
+  <si>
+    <t>Suito de tutti suitti</t>
+  </si>
+  <si>
+    <t>Total tests run: 263, Passes: 251, Failures: 7, Skips: 5</t>
+  </si>
+  <si>
+    <t>Configuration Failures: 7, Skips: 0</t>
   </si>
 </sst>
 </file>
@@ -507,7 +518,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -537,6 +548,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A162"/>
+  <dimension ref="A1:A168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,6 +2088,36 @@
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="13">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Red vs Samsara.xlsx
+++ b/Red vs Samsara.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="120">
   <si>
     <t>Bugs</t>
   </si>
@@ -394,6 +394,21 @@
   </si>
   <si>
     <t>Configuration Failures: 7, Skips: 0</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 263, Failures: 0, Errors: 0, Skipped: 0, Time elapsed: 1,739.459 s - in TestSuite</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 263, Failures: 0, Errors: 0, Skipped: 0</t>
+  </si>
+  <si>
+    <t>[INFO] Total time: 29:17 min</t>
+  </si>
+  <si>
+    <t>[INFO] Finished at: 2020-05-26T04:42:28+02:00</t>
+  </si>
+  <si>
+    <t>[INFO] Final Memory: 24M/381M</t>
   </si>
 </sst>
 </file>
@@ -547,10 +562,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,7 +991,7 @@
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="7"/>
@@ -992,7 +1007,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -1002,7 +1017,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="7"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -1012,7 +1027,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="7"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -1022,7 +1037,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="7"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -1032,7 +1047,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="7"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -1042,7 +1057,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="7"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -1052,7 +1067,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="7"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -1269,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A168"/>
+  <dimension ref="A1:A184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2106,7 @@
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="13">
+      <c r="A163" s="12">
         <v>43976</v>
       </c>
     </row>
@@ -2118,6 +2133,86 @@
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Red vs Samsara.xlsx
+++ b/Red vs Samsara.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="128">
   <si>
     <t>Bugs</t>
   </si>
@@ -409,6 +409,30 @@
   </si>
   <si>
     <t>[INFO] Final Memory: 24M/381M</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 263, Failures: 0, Errors: 0, Skipped: 0, Time elapsed: 1,299.954 s - in TestSuite</t>
+  </si>
+  <si>
+    <t>[INFO] Total time: 21:47 min</t>
+  </si>
+  <si>
+    <t>[INFO] Finished at: 2020-05-27T22:53:41+02:00</t>
+  </si>
+  <si>
+    <t>[INFO] Final Memory: 24M/376M</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 263, Failures: 0, Errors: 0, Skipped: 0, Time elapsed: 1,339.684 s - in TestSuite</t>
+  </si>
+  <si>
+    <t>[INFO] Total time: 22:26 min</t>
+  </si>
+  <si>
+    <t>[INFO] Finished at: 2020-05-29T00:46:31+02:00</t>
+  </si>
+  <si>
+    <t>[INFO] Final Memory: 24M/371M</t>
   </si>
 </sst>
 </file>
@@ -533,7 +557,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -564,6 +588,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -991,7 +1018,7 @@
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="7"/>
@@ -1007,7 +1034,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -1017,7 +1044,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="7"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -1027,7 +1054,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="7"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -1037,7 +1064,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="7"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -1047,7 +1074,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="7"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -1057,7 +1084,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="7"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -1067,7 +1094,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="7"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -1284,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A184"/>
+  <dimension ref="A1:A216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,6 +2239,166 @@
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="13">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="8">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Red vs Samsara.xlsx
+++ b/Red vs Samsara.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="132">
   <si>
     <t>Bugs</t>
   </si>
@@ -433,6 +433,18 @@
   </si>
   <si>
     <t>[INFO] Final Memory: 24M/371M</t>
+  </si>
+  <si>
+    <t>[INFO] Tests run: 263, Failures: 0, Errors: 0, Skipped: 0, Time elapsed: 1,051.09 s - in TestSuite</t>
+  </si>
+  <si>
+    <t>[INFO] Total time: 17:38 min</t>
+  </si>
+  <si>
+    <t>[INFO] Finished at: 2020-05-31T01:43:56+02:00</t>
+  </si>
+  <si>
+    <t>[INFO] Final Memory: 25M/382M</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A216"/>
+  <dimension ref="A1:A232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,6 +2411,86 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="8">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="9" t="s">
         <v>54</v>
       </c>
     </row>
